--- a/Output/Stat_LOLS.xlsx
+++ b/Output/Stat_LOLS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="11">
   <si>
     <t>Row</t>
   </si>
@@ -66,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -86,11 +86,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -104,6 +112,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,29 +138,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>10.059502542080073</v>
+        <v>10.07791573948769</v>
       </c>
       <c r="F2">
-        <v>10.059502542080073</v>
+        <v>10.07791573948769</v>
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E3">
@@ -155,7 +171,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E4">
@@ -166,7 +182,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E5">
@@ -177,7 +193,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E6">
@@ -188,7 +204,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E7">
@@ -199,7 +215,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E8">
@@ -210,7 +226,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E9">

--- a/Output/Stat_LOLS.xlsx
+++ b/Output/Stat_LOLS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="11">
   <si>
     <t>Row</t>
   </si>
@@ -66,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -94,11 +94,41 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -120,6 +150,36 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,102 +198,102 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="49" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>10.07791573948769</v>
+        <v>1605.6938790332692</v>
       </c>
       <c r="F2">
         <v>10.07791573948769</v>
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="49" t="s">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>0.059103263436858233</v>
+        <v>0.084445530685270498</v>
       </c>
       <c r="F3">
-        <v>0.073458126307788474</v>
+        <v>0.092271480553875795</v>
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="49" t="s">
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0.11684283276478677</v>
+        <v>0.17526424914718011</v>
       </c>
       <c r="F4">
-        <v>0.12670688240658162</v>
+        <v>0.1673735754353439</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="49" t="s">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>1.455790570591321</v>
+        <v>1.4714174986712174</v>
       </c>
       <c r="F5">
-        <v>1.7349128449948126</v>
+        <v>1.7027584427540012</v>
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>0.23635793001687666</v>
+        <v>0.23390180720007445</v>
       </c>
       <c r="F6">
-        <v>0.1825666256253983</v>
+        <v>0.17394126445401178</v>
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="49" t="s">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>3.701820466474925</v>
+        <v>3.7018204664749268</v>
       </c>
       <c r="F7">
-        <v>3.5944660159916886</v>
+        <v>3.2779086507922033</v>
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="49" t="s">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>0.29347246679713512</v>
+        <v>0.29347246679713596</v>
       </c>
       <c r="F8">
-        <v>-0.25461779759898778</v>
+        <v>-0.34898628544221955</v>
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>0.25005830535340229</v>
+        <v>0.36102983425449831</v>
       </c>
       <c r="F9">
-        <v>0.40236338956340512</v>
+        <v>0.53047493269356671</v>
       </c>
     </row>
   </sheetData>
